--- a/c.xlsx
+++ b/c.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\intellijIdeaProjects\Task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D69782-451B-4FAB-877A-41C7BA28D7F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D2FAC-7D1D-4987-9E72-2C5BB58BCE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c1" sheetId="2" r:id="rId1"/>
     <sheet name="c2" sheetId="3" r:id="rId2"/>
+    <sheet name="c3" sheetId="4" r:id="rId3"/>
+    <sheet name="c4" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>القســــــــــــم الفـــــــــــرعي للتجهيـــــــــــــز العمـــــــــــومي - ورقــــــــة ج - البـــــرامـج  الجـــــــــــــديــــــــــــدة</t>
   </si>
@@ -539,7 +541,52 @@
     <t>تمديد المصب الرئيسي لقنوات الصرف الصحي ببقعة الشرقة</t>
   </si>
   <si>
-    <t>2019/08</t>
+    <t>201202</t>
+  </si>
+  <si>
+    <t>3.21E8</t>
+  </si>
+  <si>
+    <t>201262</t>
+  </si>
+  <si>
+    <t>201503</t>
+  </si>
+  <si>
+    <t>3.25E8</t>
+  </si>
+  <si>
+    <t>201508</t>
+  </si>
+  <si>
+    <t>201703</t>
+  </si>
+  <si>
+    <t>2000010.0</t>
+  </si>
+  <si>
+    <t>201783</t>
+  </si>
+  <si>
+    <t>201801</t>
+  </si>
+  <si>
+    <t>201108</t>
+  </si>
+  <si>
+    <t>6249690.0</t>
+  </si>
+  <si>
+    <t>201802</t>
+  </si>
+  <si>
+    <t>151455.0</t>
+  </si>
+  <si>
+    <t>201803</t>
+  </si>
+  <si>
+    <t>2000000.0</t>
   </si>
 </sst>
 </file>
@@ -791,7 +838,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1246,11 +1293,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1520,6 +1582,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1789,6 +1852,7 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2269,7 +2333,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3509,34 +3572,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="122" t="s">
         <v>43</v>
       </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
     </row>
     <row r="2" spans="1:20" ht="20.100000000000001" x14ac:dyDescent="0.7">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
     </row>
     <row r="3" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
@@ -3579,44 +3661,44 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="125"/>
+      <c r="T4" s="126"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" t="s">
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" t="s">
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" t="s">
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" t="s">
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" t="s">
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="20"/>
@@ -3637,143 +3719,143 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="28"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="134"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="141"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="142"/>
       <c r="S7" s="1"/>
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="n">
-        <v>2000000.0</v>
-      </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" t="n">
-        <v>151455.0</v>
-      </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" t="n">
-        <v>6249690.0</v>
-      </c>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" t="n">
-        <v>2000010.0</v>
-      </c>
-      <c r="K8" s="130"/>
-      <c r="L8" s="131"/>
-      <c r="M8" t="n">
-        <v>3.25E8</v>
-      </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="131"/>
-      <c r="P8" t="n">
-        <v>3.21E8</v>
-      </c>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="133"/>
+      <c r="A8" s="122">
+        <v>2000000</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="122">
+        <v>151455</v>
+      </c>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="122">
+        <v>6249690</v>
+      </c>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="122">
+        <v>2000010</v>
+      </c>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="122">
+        <v>325000000</v>
+      </c>
+      <c r="N8" s="131"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="122">
+        <v>321000000</v>
+      </c>
+      <c r="Q8" s="133"/>
+      <c r="R8" s="134"/>
       <c r="S8" s="30" t="s">
         <v>2</v>
       </c>
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="152"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="144"/>
     </row>
     <row r="10" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="147"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="143"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="144"/>
     </row>
     <row r="11" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="149"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="147"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="143"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="152"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="144"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="164"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
+      <c r="A12" s="165"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
@@ -3789,759 +3871,903 @@
       <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="158"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="155" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="156"/>
+      <c r="T13" s="157"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="162" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="163"/>
+      <c r="T14" s="164"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="177"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="180"/>
-      <c r="S15" s="162" t="s">
+      <c r="A15" s="178"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="163"/>
+      <c r="T15" s="164"/>
     </row>
     <row r="16" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="167"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="176"/>
+      <c r="A16" s="168"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="177"/>
       <c r="S16" s="35" t="s">
         <v>5</v>
       </c>
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="190"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="196"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="183"/>
+      <c r="A17" s="191"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="184"/>
     </row>
     <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="157"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="189"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="183"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="184"/>
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="157"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="183"/>
+      <c r="A19" s="158"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="184"/>
     </row>
     <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="157"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="197"/>
-      <c r="T20" s="163"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="161"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="164"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="157"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="199"/>
+      <c r="A21" s="158"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="161"/>
+      <c r="S21" s="199"/>
+      <c r="T21" s="200"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="162" t="s">
+      <c r="A22" s="158"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="161"/>
+      <c r="S22" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="163"/>
+      <c r="T22" s="164"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="157"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="158"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="200" t="s">
+      <c r="A23" s="158"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T23" s="201"/>
+      <c r="T23" s="202"/>
     </row>
     <row r="24" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="202">
+      <c r="A24" s="203">
         <f>A8</f>
         <v>2000000</v>
       </c>
-      <c r="B24" s="203"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="205">
+      <c r="B24" s="204"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="206">
         <f>D8</f>
         <v>151455</v>
       </c>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="205">
+      <c r="E24" s="207"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="206">
         <f>G8</f>
         <v>6249690</v>
       </c>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="208">
+      <c r="H24" s="207"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="209">
         <f>J8</f>
         <v>2000010</v>
       </c>
-      <c r="K24" s="209"/>
-      <c r="L24" s="210"/>
-      <c r="M24" s="208">
+      <c r="K24" s="210"/>
+      <c r="L24" s="211"/>
+      <c r="M24" s="209">
         <f>M8</f>
         <v>325000000</v>
       </c>
-      <c r="N24" s="209"/>
-      <c r="O24" s="210"/>
-      <c r="P24" s="211">
+      <c r="N24" s="210"/>
+      <c r="O24" s="211"/>
+      <c r="P24" s="212">
         <f>P8</f>
         <v>321000000</v>
       </c>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="214"/>
       <c r="S24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="T24" s="38"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="215">
+        <f>P24</f>
+        <v>321000000</v>
+      </c>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
       <c r="S25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="215">
+        <f>M24</f>
+        <v>325000000</v>
+      </c>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
       <c r="S26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="215">
+        <f>J24</f>
+        <v>2000010</v>
+      </c>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
       <c r="S27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="215">
+        <f>G24</f>
+        <v>6249690</v>
+      </c>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
       <c r="S28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="215">
+        <f>D24</f>
+        <v>151455</v>
+      </c>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
       <c r="S29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="215">
+        <f>A24</f>
+        <v>2000000</v>
+      </c>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
       <c r="S30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="164"/>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="171"/>
+      <c r="A32" s="165"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="171"/>
+      <c r="R32" s="172"/>
       <c r="S32" s="37" t="s">
         <v>7</v>
       </c>
       <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="157"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="216"/>
-      <c r="N33" s="216"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="214"/>
-      <c r="T33" s="215"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="218"/>
+      <c r="P33" s="185"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="216"/>
+      <c r="T33" s="217"/>
     </row>
     <row r="34" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="157"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="185"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="158"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="214"/>
-      <c r="T34" s="215"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="161"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="187"/>
+      <c r="P34" s="160"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="161"/>
+      <c r="S34" s="216"/>
+      <c r="T34" s="217"/>
     </row>
     <row r="35" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="157"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="159"/>
-      <c r="Q35" s="158"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="217" t="s">
+      <c r="A35" s="158"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="161"/>
+      <c r="S35" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="218"/>
+      <c r="T35" s="220"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="157"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="200" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="159"/>
+      <c r="R36" s="161"/>
+      <c r="S36" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T36" s="201"/>
+      <c r="T36" s="202"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="160"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="159"/>
-      <c r="Q37" s="158"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="200" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="161"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="159"/>
+      <c r="R37" s="161"/>
+      <c r="S37" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T37" s="201"/>
+      <c r="T37" s="202"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="157"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="160"/>
-      <c r="M38" s="161"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="158"/>
-      <c r="R38" s="160"/>
-      <c r="S38" s="200" t="s">
+      <c r="A38" s="158"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T38" s="201"/>
+      <c r="T38" s="202"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="158"/>
-      <c r="L39" s="160"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="158"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="200" t="s">
+      <c r="A39" s="158"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="160"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="161"/>
+      <c r="S39" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T39" s="201"/>
+      <c r="T39" s="202"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="158"/>
-      <c r="L40" s="160"/>
-      <c r="M40" s="161"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="158"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="160"/>
-      <c r="S40" s="200" t="s">
+      <c r="A40" s="158"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="160"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="159"/>
+      <c r="P40" s="160"/>
+      <c r="Q40" s="159"/>
+      <c r="R40" s="161"/>
+      <c r="S40" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="T40" s="201"/>
+      <c r="T40" s="202"/>
     </row>
     <row r="41" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="223"/>
-      <c r="B41" s="224"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="226"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="228"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="226"/>
-      <c r="K41" s="228"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="226"/>
-      <c r="N41" s="228"/>
-      <c r="O41" s="229"/>
-      <c r="P41" s="227"/>
-      <c r="Q41" s="226"/>
-      <c r="R41" s="230"/>
-      <c r="S41" s="219" t="s">
+      <c r="A41" s="225"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="228"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="231"/>
+      <c r="M41" s="228"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="231"/>
+      <c r="P41" s="229"/>
+      <c r="Q41" s="228"/>
+      <c r="R41" s="232"/>
+      <c r="S41" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="T41" s="220"/>
+      <c r="T41" s="222"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="177"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="179"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="181"/>
-      <c r="N42" s="178"/>
-      <c r="O42" s="178"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="178"/>
-      <c r="R42" s="180"/>
-      <c r="S42" s="221" t="s">
+      <c r="A42" s="178"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="181"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="179"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="180"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="181"/>
+      <c r="S42" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="T42" s="222"/>
+      <c r="T42" s="224"/>
     </row>
     <row r="43" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="234">
+      <c r="A43" s="236">
         <v>7690000</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="235">
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="237">
         <v>9866000</v>
       </c>
-      <c r="E43" s="236"/>
-      <c r="F43" s="237"/>
-      <c r="G43" s="235">
+      <c r="E43" s="238"/>
+      <c r="F43" s="239"/>
+      <c r="G43" s="237">
         <v>8873631.5</v>
       </c>
-      <c r="H43" s="236"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="238">
+      <c r="H43" s="238"/>
+      <c r="I43" s="239"/>
+      <c r="J43" s="240">
         <v>2083000</v>
       </c>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="238">
+      <c r="K43" s="131"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="240">
         <v>1287525.48</v>
       </c>
-      <c r="N43" s="130"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="239">
+      <c r="N43" s="131"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="241">
         <v>332876.67</v>
       </c>
-      <c r="Q43" s="240"/>
-      <c r="R43" s="241"/>
-      <c r="S43" s="231" t="s">
+      <c r="Q43" s="242"/>
+      <c r="R43" s="243"/>
+      <c r="S43" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="T43" s="232"/>
+      <c r="T43" s="234"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="233"/>
-      <c r="B44" s="191"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="191"/>
-      <c r="L44" s="192"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="170"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="142" t="s">
+      <c r="A44" s="235"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="192"/>
+      <c r="L44" s="193"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="172"/>
+      <c r="P44" s="174"/>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="172"/>
+      <c r="S44" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="T44" s="143"/>
+      <c r="T44" s="144"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="190"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="254"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="193"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="192"/>
-      <c r="S45" s="242" t="s">
+      <c r="A45" s="191"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="192"/>
+      <c r="L45" s="193"/>
+      <c r="M45" s="256"/>
+      <c r="N45" s="192"/>
+      <c r="O45" s="192"/>
+      <c r="P45" s="194"/>
+      <c r="Q45" s="192"/>
+      <c r="R45" s="193"/>
+      <c r="S45" s="244" t="s">
         <v>12</v>
       </c>
-      <c r="T45" s="143"/>
+      <c r="T45" s="144"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="243"/>
-      <c r="B46" s="244"/>
-      <c r="C46" s="245"/>
-      <c r="D46" s="246"/>
-      <c r="E46" s="247"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="246"/>
-      <c r="H46" s="247"/>
-      <c r="I46" s="247"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="185"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="248"/>
-      <c r="N46" s="249"/>
-      <c r="O46" s="250"/>
-      <c r="P46" s="251"/>
-      <c r="Q46" s="252"/>
-      <c r="R46" s="253"/>
-      <c r="S46" s="242" t="s">
+      <c r="A46" s="245"/>
+      <c r="B46" s="246"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="248"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
+      <c r="G46" s="248"/>
+      <c r="H46" s="249"/>
+      <c r="I46" s="249"/>
+      <c r="J46" s="185"/>
+      <c r="K46" s="186"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="250"/>
+      <c r="N46" s="251"/>
+      <c r="O46" s="252"/>
+      <c r="P46" s="253"/>
+      <c r="Q46" s="254"/>
+      <c r="R46" s="255"/>
+      <c r="S46" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="T46" s="143"/>
+      <c r="T46" s="144"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="177"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="179"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="179"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="179"/>
-      <c r="K47" s="178"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="181"/>
-      <c r="N47" s="178"/>
-      <c r="O47" s="178"/>
-      <c r="P47" s="179"/>
-      <c r="Q47" s="178"/>
-      <c r="R47" s="180"/>
-      <c r="S47" s="142" t="s">
+      <c r="A47" s="178"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="179"/>
+      <c r="F47" s="179"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="179"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="181"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="179"/>
+      <c r="O47" s="179"/>
+      <c r="P47" s="180"/>
+      <c r="Q47" s="179"/>
+      <c r="R47" s="181"/>
+      <c r="S47" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="T47" s="143"/>
+      <c r="T47" s="144"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="255">
+      <c r="A48" s="257">
         <v>7690000</v>
       </c>
-      <c r="B48" s="170"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="173">
+      <c r="B48" s="171"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="174">
         <v>9866000</v>
       </c>
-      <c r="E48" s="170"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="173">
+      <c r="E48" s="171"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="174">
         <v>8873631.5</v>
       </c>
-      <c r="H48" s="170"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="173">
+      <c r="H48" s="171"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="174">
         <v>2083000</v>
       </c>
-      <c r="K48" s="170"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="173">
+      <c r="K48" s="171"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="174">
         <v>1287525.48</v>
       </c>
-      <c r="N48" s="170"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="173">
+      <c r="N48" s="171"/>
+      <c r="O48" s="172"/>
+      <c r="P48" s="174">
         <v>332876.67</v>
       </c>
-      <c r="Q48" s="170"/>
-      <c r="R48" s="171"/>
+      <c r="Q48" s="171"/>
+      <c r="R48" s="172"/>
       <c r="S48" s="40" t="s">
         <v>15</v>
       </c>
@@ -4588,10 +4814,10 @@
       <c r="P50" s="32"/>
       <c r="Q50" s="53"/>
       <c r="R50" s="52"/>
-      <c r="S50" s="256" t="s">
+      <c r="S50" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="257"/>
+      <c r="T50" s="259"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="54"/>
@@ -4609,105 +4835,105 @@
       <c r="M51" s="57"/>
       <c r="N51" s="58"/>
       <c r="O51" s="56"/>
-      <c r="P51" s="184"/>
-      <c r="Q51" s="185"/>
-      <c r="R51" s="186"/>
+      <c r="P51" s="185"/>
+      <c r="Q51" s="186"/>
+      <c r="R51" s="187"/>
       <c r="S51" s="59" t="s">
         <v>17</v>
       </c>
       <c r="T51" s="46"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="157"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="158"/>
-      <c r="J52" s="159"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="160"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="185"/>
-      <c r="O52" s="186"/>
-      <c r="P52" s="159"/>
-      <c r="Q52" s="158"/>
-      <c r="R52" s="160"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="159"/>
+      <c r="I52" s="159"/>
+      <c r="J52" s="160"/>
+      <c r="K52" s="159"/>
+      <c r="L52" s="161"/>
+      <c r="M52" s="185"/>
+      <c r="N52" s="186"/>
+      <c r="O52" s="187"/>
+      <c r="P52" s="160"/>
+      <c r="Q52" s="159"/>
+      <c r="R52" s="161"/>
       <c r="S52" s="59" t="s">
         <v>18</v>
       </c>
       <c r="T52" s="46"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="157"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="158"/>
-      <c r="F53" s="158"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="185"/>
-      <c r="L53" s="186"/>
-      <c r="M53" s="161"/>
-      <c r="N53" s="158"/>
-      <c r="O53" s="158"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="158"/>
-      <c r="R53" s="160"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="159"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="159"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="185"/>
+      <c r="K53" s="186"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="162"/>
+      <c r="N53" s="159"/>
+      <c r="O53" s="159"/>
+      <c r="P53" s="160"/>
+      <c r="Q53" s="159"/>
+      <c r="R53" s="161"/>
       <c r="S53" s="59" t="s">
         <v>19</v>
       </c>
       <c r="T53" s="46"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="157"/>
-      <c r="B54" s="158"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="160"/>
-      <c r="M54" s="161"/>
-      <c r="N54" s="158"/>
-      <c r="O54" s="158"/>
-      <c r="P54" s="159"/>
-      <c r="Q54" s="158"/>
-      <c r="R54" s="160"/>
+      <c r="A54" s="158"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="159"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="186"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="159"/>
+      <c r="L54" s="161"/>
+      <c r="M54" s="162"/>
+      <c r="N54" s="159"/>
+      <c r="O54" s="159"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="159"/>
+      <c r="R54" s="161"/>
       <c r="S54" s="59" t="s">
         <v>20</v>
       </c>
       <c r="T54" s="46"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="157"/>
-      <c r="B55" s="158"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="160"/>
-      <c r="M55" s="161"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="158"/>
-      <c r="P55" s="159"/>
-      <c r="Q55" s="158"/>
-      <c r="R55" s="160"/>
+      <c r="A55" s="158"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="185"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="187"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="161"/>
+      <c r="M55" s="162"/>
+      <c r="N55" s="159"/>
+      <c r="O55" s="159"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="159"/>
+      <c r="R55" s="161"/>
       <c r="S55" s="59" t="s">
         <v>21</v>
       </c>
@@ -4754,78 +4980,78 @@
       <c r="P57" s="69"/>
       <c r="Q57" s="71"/>
       <c r="R57" s="72"/>
-      <c r="S57" s="258" t="s">
+      <c r="S57" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="259"/>
+      <c r="T57" s="261"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="260"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="186"/>
-      <c r="D58" s="159"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="159"/>
-      <c r="K58" s="158"/>
-      <c r="L58" s="160"/>
-      <c r="M58" s="161"/>
-      <c r="N58" s="158"/>
-      <c r="O58" s="158"/>
-      <c r="P58" s="159"/>
-      <c r="Q58" s="158"/>
-      <c r="R58" s="160"/>
+      <c r="A58" s="262"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="159"/>
+      <c r="G58" s="160"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="159"/>
+      <c r="J58" s="160"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="161"/>
+      <c r="M58" s="162"/>
+      <c r="N58" s="159"/>
+      <c r="O58" s="159"/>
+      <c r="P58" s="160"/>
+      <c r="Q58" s="159"/>
+      <c r="R58" s="161"/>
       <c r="S58" s="59" t="s">
         <v>23</v>
       </c>
       <c r="T58" s="46"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="157"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="159"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="159"/>
-      <c r="K59" s="158"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="161"/>
-      <c r="N59" s="158"/>
-      <c r="O59" s="158"/>
-      <c r="P59" s="159"/>
-      <c r="Q59" s="158"/>
-      <c r="R59" s="160"/>
+      <c r="A59" s="158"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="159"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="159"/>
+      <c r="F59" s="159"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="159"/>
+      <c r="J59" s="160"/>
+      <c r="K59" s="159"/>
+      <c r="L59" s="161"/>
+      <c r="M59" s="162"/>
+      <c r="N59" s="159"/>
+      <c r="O59" s="159"/>
+      <c r="P59" s="160"/>
+      <c r="Q59" s="159"/>
+      <c r="R59" s="161"/>
       <c r="S59" s="59" t="s">
         <v>24</v>
       </c>
       <c r="T59" s="46"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="157"/>
-      <c r="B60" s="158"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="158"/>
-      <c r="I60" s="158"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="158"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="161"/>
-      <c r="N60" s="158"/>
-      <c r="O60" s="158"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="158"/>
-      <c r="R60" s="160"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="159"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="159"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="159"/>
+      <c r="O60" s="159"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="159"/>
+      <c r="R60" s="161"/>
       <c r="S60" s="73" t="s">
         <v>25</v>
       </c>
@@ -4872,78 +5098,78 @@
       <c r="P62" s="69"/>
       <c r="Q62" s="75"/>
       <c r="R62" s="52"/>
-      <c r="S62" s="261" t="s">
+      <c r="S62" s="263" t="s">
         <v>26</v>
       </c>
-      <c r="T62" s="262"/>
+      <c r="T62" s="264"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="157"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="158"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="158"/>
-      <c r="I63" s="158"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="158"/>
-      <c r="L63" s="160"/>
-      <c r="M63" s="161"/>
-      <c r="N63" s="158"/>
-      <c r="O63" s="158"/>
-      <c r="P63" s="159"/>
-      <c r="Q63" s="158"/>
-      <c r="R63" s="160"/>
+      <c r="A63" s="158"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="159"/>
+      <c r="F63" s="159"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="159"/>
+      <c r="I63" s="159"/>
+      <c r="J63" s="160"/>
+      <c r="K63" s="159"/>
+      <c r="L63" s="161"/>
+      <c r="M63" s="162"/>
+      <c r="N63" s="159"/>
+      <c r="O63" s="159"/>
+      <c r="P63" s="160"/>
+      <c r="Q63" s="159"/>
+      <c r="R63" s="161"/>
       <c r="S63" s="76" t="s">
         <v>27</v>
       </c>
       <c r="T63" s="46"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="157"/>
-      <c r="B64" s="158"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="158"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="158"/>
-      <c r="I64" s="158"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="158"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="161"/>
-      <c r="N64" s="158"/>
-      <c r="O64" s="158"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="158"/>
-      <c r="R64" s="160"/>
+      <c r="A64" s="158"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
+      <c r="D64" s="160"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="159"/>
+      <c r="L64" s="161"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="159"/>
+      <c r="O64" s="159"/>
+      <c r="P64" s="160"/>
+      <c r="Q64" s="159"/>
+      <c r="R64" s="161"/>
       <c r="S64" s="59" t="s">
         <v>28</v>
       </c>
       <c r="T64" s="46"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="157"/>
-      <c r="B65" s="158"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="158"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="158"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="161"/>
-      <c r="N65" s="158"/>
-      <c r="O65" s="158"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="158"/>
-      <c r="R65" s="160"/>
+      <c r="A65" s="158"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="159"/>
+      <c r="I65" s="159"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="159"/>
+      <c r="L65" s="161"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="159"/>
+      <c r="O65" s="159"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="159"/>
+      <c r="R65" s="161"/>
       <c r="S65" s="73" t="s">
         <v>29</v>
       </c>
@@ -4990,10 +5216,10 @@
       <c r="P67" s="69"/>
       <c r="Q67" s="75"/>
       <c r="R67" s="72"/>
-      <c r="S67" s="261" t="s">
+      <c r="S67" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="T67" s="262"/>
+      <c r="T67" s="264"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="77"/>
@@ -5018,310 +5244,310 @@
       <c r="T68" s="46"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="190" t="s">
+      <c r="A69" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="191"/>
-      <c r="C69" s="191"/>
-      <c r="D69" s="193" t="s">
+      <c r="B69" s="192"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="191"/>
-      <c r="F69" s="191"/>
-      <c r="G69" s="193" t="s">
+      <c r="E69" s="192"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="193" t="s">
+      <c r="H69" s="192"/>
+      <c r="I69" s="192"/>
+      <c r="J69" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="K69" s="191"/>
-      <c r="L69" s="192"/>
-      <c r="M69" s="254" t="s">
+      <c r="K69" s="192"/>
+      <c r="L69" s="193"/>
+      <c r="M69" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="191"/>
-      <c r="O69" s="191"/>
-      <c r="P69" s="193" t="s">
+      <c r="N69" s="192"/>
+      <c r="O69" s="192"/>
+      <c r="P69" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="Q69" s="191"/>
-      <c r="R69" s="192"/>
+      <c r="Q69" s="192"/>
+      <c r="R69" s="193"/>
       <c r="S69" s="80" t="s">
         <v>32</v>
       </c>
       <c r="T69" s="38"/>
     </row>
     <row r="70" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="223"/>
-      <c r="B70" s="226"/>
-      <c r="C70" s="230"/>
-      <c r="D70" s="227"/>
-      <c r="E70" s="226"/>
-      <c r="F70" s="230"/>
-      <c r="G70" s="227"/>
-      <c r="H70" s="226"/>
-      <c r="I70" s="230"/>
-      <c r="J70" s="227"/>
-      <c r="K70" s="226"/>
-      <c r="L70" s="230"/>
-      <c r="M70" s="227"/>
-      <c r="N70" s="226"/>
-      <c r="O70" s="230"/>
-      <c r="P70" s="227"/>
-      <c r="Q70" s="226"/>
-      <c r="R70" s="230"/>
+      <c r="A70" s="225"/>
+      <c r="B70" s="228"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="228"/>
+      <c r="F70" s="232"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="228"/>
+      <c r="I70" s="232"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="228"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="229"/>
+      <c r="N70" s="228"/>
+      <c r="O70" s="232"/>
+      <c r="P70" s="229"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="232"/>
       <c r="S70" s="81"/>
       <c r="T70" s="82"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="164" t="s">
+      <c r="A71" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="166" t="s">
+      <c r="B71" s="166"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="166" t="s">
+      <c r="E71" s="166"/>
+      <c r="F71" s="166"/>
+      <c r="G71" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="166" t="s">
+      <c r="H71" s="166"/>
+      <c r="I71" s="166"/>
+      <c r="J71" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="K71" s="165"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="263" t="s">
+      <c r="K71" s="166"/>
+      <c r="L71" s="173"/>
+      <c r="M71" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="N71" s="165"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="166" t="s">
+      <c r="N71" s="166"/>
+      <c r="O71" s="166"/>
+      <c r="P71" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="Q71" s="165"/>
-      <c r="R71" s="172"/>
+      <c r="Q71" s="166"/>
+      <c r="R71" s="173"/>
       <c r="S71" s="80" t="s">
         <v>33</v>
       </c>
       <c r="T71" s="46"/>
     </row>
     <row r="72" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="144"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="145"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="149"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="148"/>
-      <c r="L72" s="149"/>
-      <c r="M72" s="150"/>
-      <c r="N72" s="148"/>
-      <c r="O72" s="149"/>
-      <c r="P72" s="147"/>
-      <c r="Q72" s="150"/>
-      <c r="R72" s="151"/>
+      <c r="A72" s="145"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="146"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="149"/>
+      <c r="I72" s="150"/>
+      <c r="J72" s="151"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="150"/>
+      <c r="M72" s="151"/>
+      <c r="N72" s="149"/>
+      <c r="O72" s="150"/>
+      <c r="P72" s="148"/>
+      <c r="Q72" s="151"/>
+      <c r="R72" s="152"/>
       <c r="S72" s="83"/>
       <c r="T72" s="82"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="190" t="s">
+      <c r="A73" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="191"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="193" t="s">
+      <c r="B73" s="192"/>
+      <c r="C73" s="192"/>
+      <c r="D73" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="191"/>
-      <c r="F73" s="191"/>
-      <c r="G73" s="193" t="s">
+      <c r="E73" s="192"/>
+      <c r="F73" s="192"/>
+      <c r="G73" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="H73" s="191"/>
-      <c r="I73" s="191"/>
-      <c r="J73" s="193" t="s">
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="K73" s="191"/>
-      <c r="L73" s="192"/>
-      <c r="M73" s="254" t="s">
+      <c r="K73" s="192"/>
+      <c r="L73" s="193"/>
+      <c r="M73" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="N73" s="191"/>
-      <c r="O73" s="191"/>
-      <c r="P73" s="193" t="s">
+      <c r="N73" s="192"/>
+      <c r="O73" s="192"/>
+      <c r="P73" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="Q73" s="191"/>
-      <c r="R73" s="192"/>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="193"/>
       <c r="S73" s="80" t="s">
         <v>34</v>
       </c>
       <c r="T73" s="38"/>
     </row>
     <row r="74" spans="1:20" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="223"/>
-      <c r="B74" s="226"/>
-      <c r="C74" s="230"/>
-      <c r="D74" s="227"/>
-      <c r="E74" s="226"/>
-      <c r="F74" s="230"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="226"/>
-      <c r="I74" s="230"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="226"/>
-      <c r="L74" s="230"/>
-      <c r="M74" s="227"/>
-      <c r="N74" s="226"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="227"/>
-      <c r="Q74" s="226"/>
-      <c r="R74" s="230"/>
+      <c r="A74" s="225"/>
+      <c r="B74" s="228"/>
+      <c r="C74" s="232"/>
+      <c r="D74" s="229"/>
+      <c r="E74" s="228"/>
+      <c r="F74" s="232"/>
+      <c r="G74" s="229"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="232"/>
+      <c r="J74" s="229"/>
+      <c r="K74" s="228"/>
+      <c r="L74" s="232"/>
+      <c r="M74" s="229"/>
+      <c r="N74" s="228"/>
+      <c r="O74" s="232"/>
+      <c r="P74" s="229"/>
+      <c r="Q74" s="228"/>
+      <c r="R74" s="232"/>
       <c r="S74" s="81"/>
       <c r="T74" s="82"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="164" t="s">
+      <c r="A75" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="165"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="166" t="s">
+      <c r="B75" s="166"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="165"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="166" t="s">
+      <c r="E75" s="166"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="165"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="166" t="s">
+      <c r="H75" s="166"/>
+      <c r="I75" s="173"/>
+      <c r="J75" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="K75" s="165"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="166" t="s">
+      <c r="K75" s="166"/>
+      <c r="L75" s="173"/>
+      <c r="M75" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="N75" s="165"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="166" t="s">
+      <c r="N75" s="166"/>
+      <c r="O75" s="173"/>
+      <c r="P75" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="Q75" s="165"/>
-      <c r="R75" s="172"/>
-      <c r="S75" s="142" t="s">
+      <c r="Q75" s="166"/>
+      <c r="R75" s="173"/>
+      <c r="S75" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="T75" s="264"/>
+      <c r="T75" s="266"/>
     </row>
     <row r="76" spans="1:20" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="152"/>
-      <c r="B76" s="153"/>
-      <c r="C76" s="154"/>
-      <c r="D76" s="265"/>
-      <c r="E76" s="153"/>
-      <c r="F76" s="153"/>
-      <c r="G76" s="266"/>
-      <c r="H76" s="267"/>
-      <c r="I76" s="268"/>
-      <c r="J76" s="265"/>
-      <c r="K76" s="267"/>
-      <c r="L76" s="268"/>
-      <c r="M76" s="265"/>
-      <c r="N76" s="267"/>
-      <c r="O76" s="268"/>
-      <c r="P76" s="266"/>
-      <c r="Q76" s="265"/>
-      <c r="R76" s="269"/>
-      <c r="S76" s="270" t="s">
+      <c r="A76" s="153"/>
+      <c r="B76" s="154"/>
+      <c r="C76" s="155"/>
+      <c r="D76" s="267"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="268"/>
+      <c r="H76" s="269"/>
+      <c r="I76" s="270"/>
+      <c r="J76" s="267"/>
+      <c r="K76" s="269"/>
+      <c r="L76" s="270"/>
+      <c r="M76" s="267"/>
+      <c r="N76" s="269"/>
+      <c r="O76" s="270"/>
+      <c r="P76" s="268"/>
+      <c r="Q76" s="267"/>
+      <c r="R76" s="271"/>
+      <c r="S76" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="T76" s="220"/>
+      <c r="T76" s="222"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="177" t="s">
+      <c r="A77" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="178"/>
-      <c r="C77" s="178"/>
-      <c r="D77" s="179" t="s">
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="E77" s="178"/>
-      <c r="F77" s="178"/>
-      <c r="G77" s="179" t="s">
+      <c r="E77" s="179"/>
+      <c r="F77" s="179"/>
+      <c r="G77" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="179" t="s">
+      <c r="H77" s="179"/>
+      <c r="I77" s="179"/>
+      <c r="J77" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="K77" s="178"/>
-      <c r="L77" s="180"/>
-      <c r="M77" s="181" t="s">
+      <c r="K77" s="179"/>
+      <c r="L77" s="181"/>
+      <c r="M77" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="N77" s="178"/>
-      <c r="O77" s="178"/>
-      <c r="P77" s="179" t="s">
+      <c r="N77" s="179"/>
+      <c r="O77" s="179"/>
+      <c r="P77" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="Q77" s="178"/>
-      <c r="R77" s="180"/>
+      <c r="Q77" s="179"/>
+      <c r="R77" s="181"/>
       <c r="S77" s="84"/>
       <c r="T77" s="82" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="157" t="s">
+      <c r="A78" s="158" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="158"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="159" t="s">
+      <c r="B78" s="159"/>
+      <c r="C78" s="159"/>
+      <c r="D78" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="158"/>
-      <c r="F78" s="158"/>
-      <c r="G78" s="159" t="s">
+      <c r="E78" s="159"/>
+      <c r="F78" s="159"/>
+      <c r="G78" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="H78" s="158"/>
-      <c r="I78" s="158"/>
-      <c r="J78" s="159" t="s">
+      <c r="H78" s="159"/>
+      <c r="I78" s="159"/>
+      <c r="J78" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="K78" s="158"/>
-      <c r="L78" s="160"/>
-      <c r="M78" s="161" t="s">
+      <c r="K78" s="159"/>
+      <c r="L78" s="161"/>
+      <c r="M78" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="158"/>
-      <c r="O78" s="158"/>
-      <c r="P78" s="159" t="s">
+      <c r="N78" s="159"/>
+      <c r="O78" s="159"/>
+      <c r="P78" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="Q78" s="158"/>
-      <c r="R78" s="160"/>
-      <c r="S78" s="219" t="s">
+      <c r="Q78" s="159"/>
+      <c r="R78" s="161"/>
+      <c r="S78" s="221" t="s">
         <v>37</v>
       </c>
-      <c r="T78" s="220"/>
+      <c r="T78" s="222"/>
     </row>
     <row r="79" spans="1:20" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A79" s="85"/>
@@ -5793,67 +6019,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2F2713-1954-497F-A23D-29D7FC14F56C}">
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22:X22"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="274"/>
+      <c r="O1" s="274"/>
+      <c r="P1" s="274"/>
+      <c r="Q1" s="274"/>
+      <c r="R1" s="274"/>
+      <c r="S1" s="274"/>
+      <c r="T1" s="274"/>
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
     </row>
     <row r="2" spans="1:24" ht="20.100000000000001" x14ac:dyDescent="0.7">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
-      <c r="Q2" s="272"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
+      <c r="P2" s="274"/>
+      <c r="Q2" s="274"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="274"/>
+      <c r="T2" s="274"/>
+      <c r="U2" s="274"/>
+      <c r="V2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="274"/>
     </row>
     <row r="3" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1"/>
@@ -5876,1278 +6102,1274 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="273"/>
-      <c r="B4" s="274"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="277"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="277"/>
-      <c r="J4" s="277"/>
-      <c r="K4" s="277"/>
-      <c r="L4" s="277"/>
-      <c r="M4" s="277"/>
-      <c r="N4" s="277"/>
-      <c r="O4" s="277"/>
-      <c r="P4" s="277"/>
-      <c r="Q4" s="277"/>
-      <c r="R4" s="277"/>
-      <c r="S4" s="277"/>
-      <c r="T4" s="277"/>
-      <c r="U4" s="277"/>
-      <c r="V4" s="277"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="278"/>
+      <c r="A4" s="275"/>
+      <c r="B4" s="276"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="279"/>
+      <c r="O4" s="279"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="279"/>
+      <c r="R4" s="279"/>
+      <c r="S4" s="279"/>
+      <c r="T4" s="279"/>
+      <c r="U4" s="279"/>
+      <c r="V4" s="279"/>
+      <c r="W4" s="279"/>
+      <c r="X4" s="280"/>
     </row>
     <row r="5" spans="1:24" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="137"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="280"/>
-      <c r="T5" s="280"/>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
-      <c r="X5" s="281"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
+      <c r="O5" s="282"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="282"/>
+      <c r="R5" s="282"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="282"/>
+      <c r="X5" s="283"/>
     </row>
     <row r="6" spans="1:24" ht="15.3" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="284"/>
-      <c r="H6" s="285"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="285"/>
-      <c r="O6" s="286"/>
-      <c r="P6" s="284"/>
-      <c r="Q6" s="285"/>
-      <c r="R6" s="286"/>
-      <c r="S6" s="284"/>
-      <c r="T6" s="285"/>
-      <c r="U6" s="286"/>
-      <c r="V6" s="284" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="285"/>
-      <c r="X6" s="292"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="288"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="287"/>
+      <c r="R6" s="288"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="287"/>
+      <c r="U6" s="288"/>
+      <c r="V6" s="286" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="287"/>
+      <c r="X6" s="294"/>
     </row>
     <row r="7" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="288"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="290"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="291"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="291"/>
-      <c r="S7" s="290"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="290"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="127"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="293"/>
+      <c r="P7" s="292"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="293"/>
+      <c r="S7" s="292"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="293"/>
+      <c r="V7" s="292"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="128"/>
     </row>
     <row r="8" spans="1:24" ht="15.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="293"/>
-      <c r="B8" s="294"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="297"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="296"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="296"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="297"/>
-      <c r="V8" s="296"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="298"/>
+      <c r="A8" s="295"/>
+      <c r="B8" s="296"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="298"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="298"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="299"/>
+      <c r="P8" s="298"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="299"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="299"/>
+      <c r="V8" s="298"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="300"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="234">
+      <c r="A9" s="236">
         <f>V9+'c1'!A8+'c1'!D8+'c1'!G8+'c1'!J8+'c1'!M8+'c1'!P8</f>
         <v>656401155</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="304"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="304"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="305"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="305" t="n">
-        <v>3200300.0</v>
-      </c>
-      <c r="W9" s="128" t="n">
-        <v>3200300.0</v>
-      </c>
-      <c r="X9" s="306"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="304"/>
+      <c r="H9" s="305"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="304"/>
+      <c r="K9" s="305"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="307"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="129"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="307"/>
+      <c r="T9" s="129"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="308"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="157"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="307"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="307"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="307"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="307"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="308"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="309"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="309"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="309"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="309"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="309"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="310"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="157"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="307"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="307"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="307"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="307"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="307"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="307"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="308"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="309"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="309"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="309"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="309"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="309"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="310"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="177"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="309"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="309"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="181"/>
-      <c r="U12" s="309"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="310"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="311"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="311"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="311"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="182"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="182"/>
+      <c r="U12" s="311"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="312"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="177"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="309"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="311"/>
-      <c r="N13" s="312"/>
-      <c r="O13" s="313"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="309"/>
-      <c r="S13" s="179"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="310"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="311"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="311"/>
+      <c r="M13" s="313"/>
+      <c r="N13" s="314"/>
+      <c r="O13" s="315"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="182"/>
+      <c r="U13" s="311"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="182"/>
+      <c r="X13" s="312"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="307"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="307"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="307"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="308"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="309"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="309"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="309"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="309"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="310"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="157"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="307"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="307"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="307"/>
-      <c r="M15" s="314"/>
-      <c r="N15" s="315"/>
-      <c r="O15" s="316"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="161"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="161"/>
-      <c r="U15" s="307"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="161"/>
-      <c r="X15" s="308"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="309"/>
+      <c r="M15" s="316"/>
+      <c r="N15" s="317"/>
+      <c r="O15" s="318"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="309"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="309"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="310"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="323"/>
-      <c r="B16" s="324"/>
-      <c r="C16" s="325"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="326"/>
-      <c r="N16" s="327"/>
-      <c r="O16" s="328"/>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="309"/>
-      <c r="S16" s="179"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="179"/>
-      <c r="W16" s="181"/>
-      <c r="X16" s="310"/>
+      <c r="A16" s="325"/>
+      <c r="B16" s="326"/>
+      <c r="C16" s="327"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="311"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="311"/>
+      <c r="M16" s="328"/>
+      <c r="N16" s="329"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="311"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="311"/>
+      <c r="V16" s="180"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="312"/>
     </row>
     <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="317"/>
-      <c r="B17" s="318"/>
-      <c r="C17" s="319"/>
-      <c r="D17" s="320"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="305"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="129"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="181"/>
-      <c r="X17" s="310"/>
+      <c r="A17" s="319"/>
+      <c r="B17" s="320"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="307"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="239"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="312"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="260"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="307"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="307"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="307"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="307"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="307"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="308"/>
+      <c r="A18" s="262"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="309"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="309"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="310"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="260"/>
-      <c r="B19" s="185"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="307"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="307"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="307"/>
-      <c r="M19" s="314"/>
-      <c r="N19" s="315"/>
-      <c r="O19" s="316"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="307"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="308"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="309"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="309"/>
+      <c r="M19" s="316"/>
+      <c r="N19" s="317"/>
+      <c r="O19" s="318"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="309"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="310"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="260"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="307"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="307"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="307"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="185"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="307"/>
-      <c r="S20" s="184"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="308"/>
+      <c r="A20" s="262"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="309"/>
+      <c r="M20" s="185"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="309"/>
+      <c r="S20" s="185"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="310"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="323"/>
-      <c r="B21" s="324"/>
-      <c r="C21" s="325"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="309"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="309"/>
-      <c r="J21" s="329"/>
-      <c r="K21" s="324"/>
-      <c r="L21" s="325"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="309"/>
-      <c r="P21" s="179"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="309"/>
-      <c r="S21" s="179"/>
-      <c r="T21" s="181"/>
-      <c r="U21" s="309"/>
-      <c r="V21" s="179"/>
-      <c r="W21" s="181"/>
-      <c r="X21" s="310"/>
+      <c r="A21" s="325"/>
+      <c r="B21" s="326"/>
+      <c r="C21" s="327"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="311"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="311"/>
+      <c r="J21" s="331"/>
+      <c r="K21" s="326"/>
+      <c r="L21" s="327"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="311"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="311"/>
+      <c r="S21" s="180"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="311"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="312"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="202">
+      <c r="A22" s="203">
         <f>V22+'c1'!A24+'c1'!D24+'c1'!G24+'c1'!J24+'c1'!M24+'c1'!P24</f>
         <v>656401155</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="332"/>
-      <c r="E22" s="333"/>
-      <c r="F22" s="334"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="335"/>
-      <c r="K22" s="336"/>
-      <c r="L22" s="337"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="330"/>
-      <c r="Q22" s="203"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="330"/>
-      <c r="T22" s="203"/>
-      <c r="U22" s="204"/>
-      <c r="V22" s="330"/>
-      <c r="W22" s="203"/>
-      <c r="X22" s="331"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="334"/>
+      <c r="E22" s="335"/>
+      <c r="F22" s="336"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="338"/>
+      <c r="L22" s="339"/>
+      <c r="M22" s="206"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="332"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="333"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="260">
+      <c r="A23" s="262">
         <f>'c1'!P25</f>
         <v>321000000</v>
       </c>
-      <c r="B23" s="185"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="307"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="307"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="307"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="307"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="308"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="309"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="309"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="309"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="309"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="309"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="309"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="310"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="260">
+      <c r="A24" s="262">
         <f>'c1'!M26</f>
         <v>325000000</v>
       </c>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="307"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="161"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="161"/>
-      <c r="U24" s="307"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="161"/>
-      <c r="X24" s="308"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="309"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="309"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="309"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="309"/>
+      <c r="S24" s="160"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="309"/>
+      <c r="V24" s="160"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="310"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="260">
+      <c r="A25" s="262">
         <f>'c1'!J27</f>
         <v>2000010</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="307"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="307"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="307"/>
-      <c r="M25" s="159"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="307"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="307"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="161"/>
-      <c r="U25" s="307"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="161"/>
-      <c r="X25" s="308"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="309"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="309"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="309"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="309"/>
+      <c r="S25" s="160"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="309"/>
+      <c r="V25" s="160"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="310"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="260">
+      <c r="A26" s="262">
         <f>'c1'!G28</f>
         <v>6249690</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="307"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="307"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="307"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="161"/>
-      <c r="R26" s="307"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="161"/>
-      <c r="U26" s="307"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="161"/>
-      <c r="X26" s="308"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="309"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="309"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="309"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="309"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="309"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="310"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="260">
+      <c r="A27" s="262">
         <f>'c1'!D29</f>
         <v>151455</v>
       </c>
-      <c r="B27" s="185"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="307"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="307"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="307"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="307"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="307"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="307"/>
-      <c r="V27" s="184"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="338"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="309"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="309"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="309"/>
+      <c r="S27" s="160"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="309"/>
+      <c r="V27" s="185"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="340"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="260">
+      <c r="A28" s="262">
         <f>'c1'!A30</f>
         <v>2000000</v>
       </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="307"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="307"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="339"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="340"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="187"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="309"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="309"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="309"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="185"/>
+      <c r="T28" s="186"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="341"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="342"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="260">
+      <c r="A29" s="262">
         <f>V29</f>
         <v>0</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="307"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="307"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="307"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="341"/>
-      <c r="T29" s="188"/>
-      <c r="U29" s="189"/>
-      <c r="V29" s="184">
+      <c r="B29" s="186"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="309"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="309"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="343"/>
+      <c r="T29" s="189"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="185">
         <f>V22</f>
         <v>0</v>
       </c>
-      <c r="W29" s="185"/>
-      <c r="X29" s="338"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="340"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="157"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="307"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="307"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="307"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="307"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="307"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="161"/>
-      <c r="U30" s="307"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="161"/>
-      <c r="X30" s="308"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="309"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="309"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="309"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="309"/>
+      <c r="S30" s="160"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="309"/>
+      <c r="V30" s="160"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="310"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="157"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="307"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="307"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="307"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="307"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="307"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="307"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="308"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="309"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="309"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="309"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="309"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="309"/>
+      <c r="S31" s="160"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="309"/>
+      <c r="V31" s="160"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="310"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="157"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="307"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="307"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="307"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="307"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="307"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="307"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="307"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="308"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="309"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="309"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="309"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="309"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="309"/>
+      <c r="S32" s="160"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="309"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="310"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="177"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="309"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="309"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="309"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="309"/>
-      <c r="P33" s="179"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="309"/>
-      <c r="S33" s="179"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="309"/>
-      <c r="V33" s="179"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="310"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="311"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="311"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="311"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="311"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="182"/>
+      <c r="R33" s="311"/>
+      <c r="S33" s="180"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="311"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="312"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="255"/>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="263"/>
-      <c r="F34" s="342"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="263"/>
-      <c r="I34" s="342"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="263"/>
-      <c r="L34" s="342"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="263"/>
-      <c r="O34" s="342"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="263"/>
-      <c r="R34" s="342"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="263"/>
-      <c r="U34" s="342"/>
-      <c r="V34" s="166"/>
-      <c r="W34" s="263"/>
-      <c r="X34" s="343"/>
+      <c r="A34" s="257"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="344"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="265"/>
+      <c r="I34" s="344"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="265"/>
+      <c r="L34" s="344"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="265"/>
+      <c r="O34" s="344"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="265"/>
+      <c r="R34" s="344"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="265"/>
+      <c r="U34" s="344"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="265"/>
+      <c r="X34" s="345"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="344"/>
-      <c r="B35" s="345"/>
-      <c r="C35" s="346"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="307"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="307"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="161"/>
-      <c r="L35" s="307"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="307"/>
-      <c r="P35" s="159"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="307"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="161"/>
-      <c r="U35" s="307"/>
-      <c r="V35" s="159"/>
-      <c r="W35" s="161"/>
-      <c r="X35" s="308"/>
+      <c r="A35" s="346"/>
+      <c r="B35" s="347"/>
+      <c r="C35" s="348"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="309"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="309"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="309"/>
+      <c r="P35" s="160"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="309"/>
+      <c r="S35" s="160"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="309"/>
+      <c r="V35" s="160"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="310"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="260"/>
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="307"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="307"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="307"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="307"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="307"/>
-      <c r="S36" s="159"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="307"/>
-      <c r="V36" s="159"/>
-      <c r="W36" s="161"/>
-      <c r="X36" s="308"/>
+      <c r="A36" s="262"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="187"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="309"/>
+      <c r="J36" s="160"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="309"/>
+      <c r="M36" s="160"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="309"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="309"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="309"/>
+      <c r="V36" s="160"/>
+      <c r="W36" s="162"/>
+      <c r="X36" s="310"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="157"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="307"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="307"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="307"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="307"/>
-      <c r="P37" s="159"/>
-      <c r="Q37" s="161"/>
-      <c r="R37" s="307"/>
-      <c r="S37" s="159"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="159"/>
-      <c r="W37" s="161"/>
-      <c r="X37" s="308"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="160"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="309"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="162"/>
+      <c r="R37" s="309"/>
+      <c r="S37" s="160"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="162"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="162"/>
+      <c r="X37" s="310"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="157"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="307"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="307"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="161"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="161"/>
-      <c r="O38" s="307"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="159"/>
-      <c r="T38" s="161"/>
-      <c r="U38" s="161"/>
-      <c r="V38" s="159"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="308"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="309"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="309"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="160"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="309"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="162"/>
+      <c r="R38" s="309"/>
+      <c r="S38" s="160"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="160"/>
+      <c r="W38" s="162"/>
+      <c r="X38" s="310"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="157"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="307"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="307"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="307"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="161"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="161"/>
-      <c r="O39" s="307"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="307"/>
-      <c r="S39" s="159"/>
-      <c r="T39" s="161"/>
-      <c r="U39" s="161"/>
-      <c r="V39" s="159"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="308"/>
+      <c r="A39" s="158"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="309"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="309"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="160"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="309"/>
+      <c r="P39" s="160"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="309"/>
+      <c r="S39" s="160"/>
+      <c r="T39" s="162"/>
+      <c r="U39" s="162"/>
+      <c r="V39" s="160"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="310"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="157"/>
-      <c r="B40" s="161"/>
-      <c r="C40" s="307"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="307"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="307"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="161"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="161"/>
-      <c r="O40" s="307"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="161"/>
-      <c r="R40" s="307"/>
-      <c r="S40" s="159"/>
-      <c r="T40" s="161"/>
-      <c r="U40" s="161"/>
-      <c r="V40" s="159"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="308"/>
+      <c r="A40" s="158"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="309"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="309"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="160"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="309"/>
+      <c r="P40" s="160"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="309"/>
+      <c r="S40" s="160"/>
+      <c r="T40" s="162"/>
+      <c r="U40" s="162"/>
+      <c r="V40" s="160"/>
+      <c r="W40" s="162"/>
+      <c r="X40" s="310"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="177"/>
-      <c r="B41" s="181"/>
-      <c r="C41" s="181"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="309"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="309"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="309"/>
-      <c r="S41" s="179"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="179"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="310"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="311"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="311"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="311"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="311"/>
+      <c r="S41" s="180"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="180"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="312"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157"/>
-      <c r="B42" s="161"/>
-      <c r="C42" s="307"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="307"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="307"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="314"/>
-      <c r="N42" s="315"/>
-      <c r="O42" s="316"/>
-      <c r="P42" s="159"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="307"/>
-      <c r="S42" s="159"/>
-      <c r="T42" s="161"/>
-      <c r="U42" s="161"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="308"/>
+      <c r="A42" s="158"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="309"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="309"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="316"/>
+      <c r="N42" s="317"/>
+      <c r="O42" s="318"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="162"/>
+      <c r="R42" s="309"/>
+      <c r="S42" s="160"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="162"/>
+      <c r="V42" s="160"/>
+      <c r="W42" s="162"/>
+      <c r="X42" s="310"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="157"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="307"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="307"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="161"/>
-      <c r="M43" s="314"/>
-      <c r="N43" s="315"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="159"/>
-      <c r="Q43" s="161"/>
-      <c r="R43" s="307"/>
-      <c r="S43" s="159"/>
-      <c r="T43" s="161"/>
-      <c r="U43" s="161"/>
-      <c r="V43" s="159"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="308"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="162"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="309"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="317"/>
+      <c r="O43" s="318"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="162"/>
+      <c r="R43" s="309"/>
+      <c r="S43" s="160"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="162"/>
+      <c r="V43" s="160"/>
+      <c r="W43" s="162"/>
+      <c r="X43" s="310"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="157"/>
-      <c r="B44" s="161"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="307"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="307"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="181"/>
-      <c r="M44" s="326"/>
-      <c r="N44" s="327"/>
-      <c r="O44" s="328"/>
-      <c r="P44" s="329"/>
-      <c r="Q44" s="324"/>
-      <c r="R44" s="325"/>
-      <c r="S44" s="329"/>
-      <c r="T44" s="324"/>
-      <c r="U44" s="324"/>
-      <c r="V44" s="179"/>
-      <c r="W44" s="181"/>
-      <c r="X44" s="310"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="309"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="309"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="329"/>
+      <c r="O44" s="330"/>
+      <c r="P44" s="331"/>
+      <c r="Q44" s="326"/>
+      <c r="R44" s="327"/>
+      <c r="S44" s="331"/>
+      <c r="T44" s="326"/>
+      <c r="U44" s="326"/>
+      <c r="V44" s="180"/>
+      <c r="W44" s="182"/>
+      <c r="X44" s="312"/>
     </row>
     <row r="45" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="347">
+      <c r="A45" s="349">
         <f>V45+'c1'!A43+'c1'!D43+'c1'!G43+'c1'!J43+'c1'!M43+'c1'!P43</f>
         <v>30133033.650000002</v>
       </c>
-      <c r="B45" s="236"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="348"/>
-      <c r="E45" s="349"/>
-      <c r="F45" s="350"/>
-      <c r="G45" s="173"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="351"/>
-      <c r="K45" s="352"/>
-      <c r="L45" s="353"/>
-      <c r="M45" s="173"/>
-      <c r="N45" s="170"/>
-      <c r="O45" s="171"/>
-      <c r="P45" s="173"/>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="171"/>
-      <c r="S45" s="173"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="171"/>
-      <c r="V45" s="330">
+      <c r="B45" s="238"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="350"/>
+      <c r="E45" s="351"/>
+      <c r="F45" s="352"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="353"/>
+      <c r="K45" s="354"/>
+      <c r="L45" s="355"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="172"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="171"/>
+      <c r="R45" s="172"/>
+      <c r="S45" s="174"/>
+      <c r="T45" s="171"/>
+      <c r="U45" s="172"/>
+      <c r="V45" s="332">
         <f>V29</f>
         <v>0</v>
       </c>
-      <c r="W45" s="203"/>
-      <c r="X45" s="331"/>
+      <c r="W45" s="204"/>
+      <c r="X45" s="333"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="361"/>
-      <c r="B46" s="212"/>
-      <c r="C46" s="213"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="307"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="307"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="161"/>
-      <c r="M46" s="314"/>
-      <c r="N46" s="315"/>
-      <c r="O46" s="316"/>
-      <c r="P46" s="184"/>
-      <c r="Q46" s="185"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="184"/>
-      <c r="T46" s="185"/>
-      <c r="U46" s="185"/>
-      <c r="V46" s="354"/>
-      <c r="W46" s="355"/>
-      <c r="X46" s="356"/>
+      <c r="A46" s="363"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="309"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="309"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="316"/>
+      <c r="N46" s="317"/>
+      <c r="O46" s="318"/>
+      <c r="P46" s="185"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="187"/>
+      <c r="S46" s="185"/>
+      <c r="T46" s="186"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="356"/>
+      <c r="W46" s="357"/>
+      <c r="X46" s="358"/>
     </row>
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="157"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="161"/>
-      <c r="D47" s="187"/>
-      <c r="E47" s="357"/>
-      <c r="F47" s="358"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="307"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="161"/>
-      <c r="M47" s="314"/>
-      <c r="N47" s="315"/>
-      <c r="O47" s="316"/>
-      <c r="P47" s="184"/>
-      <c r="Q47" s="185"/>
-      <c r="R47" s="186"/>
-      <c r="S47" s="359"/>
-      <c r="T47" s="360"/>
-      <c r="U47" s="360"/>
-      <c r="V47" s="354"/>
-      <c r="W47" s="355"/>
-      <c r="X47" s="356"/>
+      <c r="A47" s="158"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="359"/>
+      <c r="F47" s="360"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="309"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="316"/>
+      <c r="N47" s="317"/>
+      <c r="O47" s="318"/>
+      <c r="P47" s="185"/>
+      <c r="Q47" s="186"/>
+      <c r="R47" s="187"/>
+      <c r="S47" s="361"/>
+      <c r="T47" s="362"/>
+      <c r="U47" s="362"/>
+      <c r="V47" s="356"/>
+      <c r="W47" s="357"/>
+      <c r="X47" s="358"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="367"/>
-      <c r="B48" s="130"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="368"/>
-      <c r="E48" s="369"/>
-      <c r="F48" s="370"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="186"/>
-      <c r="M48" s="184"/>
-      <c r="N48" s="185"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="184"/>
-      <c r="Q48" s="185"/>
-      <c r="R48" s="186"/>
-      <c r="S48" s="362"/>
-      <c r="T48" s="363"/>
-      <c r="U48" s="363"/>
-      <c r="V48" s="354"/>
-      <c r="W48" s="355"/>
-      <c r="X48" s="356"/>
+      <c r="A48" s="369"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="370"/>
+      <c r="E48" s="371"/>
+      <c r="F48" s="372"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="185"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="185"/>
+      <c r="N48" s="186"/>
+      <c r="O48" s="187"/>
+      <c r="P48" s="185"/>
+      <c r="Q48" s="186"/>
+      <c r="R48" s="187"/>
+      <c r="S48" s="364"/>
+      <c r="T48" s="365"/>
+      <c r="U48" s="365"/>
+      <c r="V48" s="356"/>
+      <c r="W48" s="357"/>
+      <c r="X48" s="358"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="157"/>
-      <c r="B49" s="161"/>
-      <c r="C49" s="307"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="307"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="307"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="181"/>
-      <c r="M49" s="326"/>
-      <c r="N49" s="327"/>
-      <c r="O49" s="328"/>
-      <c r="P49" s="179"/>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="309"/>
-      <c r="S49" s="364"/>
-      <c r="T49" s="365"/>
-      <c r="U49" s="365"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="336"/>
-      <c r="X49" s="366"/>
+      <c r="A49" s="158"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="162"/>
+      <c r="F49" s="309"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="309"/>
+      <c r="J49" s="180"/>
+      <c r="K49" s="182"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="328"/>
+      <c r="N49" s="329"/>
+      <c r="O49" s="330"/>
+      <c r="P49" s="180"/>
+      <c r="Q49" s="182"/>
+      <c r="R49" s="311"/>
+      <c r="S49" s="366"/>
+      <c r="T49" s="367"/>
+      <c r="U49" s="367"/>
+      <c r="V49" s="337"/>
+      <c r="W49" s="338"/>
+      <c r="X49" s="368"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="375">
+      <c r="A50" s="377">
         <f>A45</f>
         <v>30133033.650000002</v>
       </c>
-      <c r="B50" s="206"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="263"/>
-      <c r="F50" s="342"/>
-      <c r="G50" s="263"/>
-      <c r="H50" s="263"/>
-      <c r="I50" s="342"/>
-      <c r="J50" s="263"/>
-      <c r="K50" s="263"/>
-      <c r="L50" s="342"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="171"/>
-      <c r="P50" s="247"/>
-      <c r="Q50" s="247"/>
-      <c r="R50" s="376"/>
-      <c r="S50" s="371"/>
-      <c r="T50" s="371"/>
-      <c r="U50" s="372"/>
-      <c r="V50" s="330">
+      <c r="B50" s="207"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="265"/>
+      <c r="F50" s="344"/>
+      <c r="G50" s="265"/>
+      <c r="H50" s="265"/>
+      <c r="I50" s="344"/>
+      <c r="J50" s="265"/>
+      <c r="K50" s="265"/>
+      <c r="L50" s="344"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="171"/>
+      <c r="O50" s="172"/>
+      <c r="P50" s="249"/>
+      <c r="Q50" s="249"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="373"/>
+      <c r="T50" s="373"/>
+      <c r="U50" s="374"/>
+      <c r="V50" s="332">
         <f>V22</f>
         <v>0</v>
       </c>
-      <c r="W50" s="203"/>
-      <c r="X50" s="331"/>
+      <c r="W50" s="204"/>
+      <c r="X50" s="333"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="100"/>
@@ -7208,134 +7430,134 @@
       <c r="X52" s="113"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="260"/>
-      <c r="B53" s="185"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="307"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="307"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="307"/>
-      <c r="M53" s="373"/>
-      <c r="N53" s="216"/>
-      <c r="O53" s="374"/>
-      <c r="P53" s="373"/>
-      <c r="Q53" s="216"/>
-      <c r="R53" s="374"/>
-      <c r="S53" s="373"/>
-      <c r="T53" s="216"/>
-      <c r="U53" s="374"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="161"/>
-      <c r="X53" s="308"/>
+      <c r="A53" s="262"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="162"/>
+      <c r="F53" s="309"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="309"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="162"/>
+      <c r="L53" s="309"/>
+      <c r="M53" s="375"/>
+      <c r="N53" s="218"/>
+      <c r="O53" s="376"/>
+      <c r="P53" s="375"/>
+      <c r="Q53" s="218"/>
+      <c r="R53" s="376"/>
+      <c r="S53" s="375"/>
+      <c r="T53" s="218"/>
+      <c r="U53" s="376"/>
+      <c r="V53" s="160"/>
+      <c r="W53" s="162"/>
+      <c r="X53" s="310"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="260"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="186"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="307"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="307"/>
-      <c r="J54" s="159"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="307"/>
-      <c r="M54" s="373"/>
-      <c r="N54" s="216"/>
-      <c r="O54" s="374"/>
-      <c r="P54" s="373"/>
-      <c r="Q54" s="216"/>
-      <c r="R54" s="374"/>
-      <c r="S54" s="373"/>
-      <c r="T54" s="216"/>
-      <c r="U54" s="374"/>
-      <c r="V54" s="159"/>
-      <c r="W54" s="161"/>
-      <c r="X54" s="308"/>
+      <c r="A54" s="262"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="309"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="309"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="162"/>
+      <c r="L54" s="309"/>
+      <c r="M54" s="375"/>
+      <c r="N54" s="218"/>
+      <c r="O54" s="376"/>
+      <c r="P54" s="375"/>
+      <c r="Q54" s="218"/>
+      <c r="R54" s="376"/>
+      <c r="S54" s="375"/>
+      <c r="T54" s="218"/>
+      <c r="U54" s="376"/>
+      <c r="V54" s="160"/>
+      <c r="W54" s="162"/>
+      <c r="X54" s="310"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="260"/>
-      <c r="B55" s="185"/>
-      <c r="C55" s="186"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="307"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="307"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="307"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="161"/>
-      <c r="O55" s="307"/>
-      <c r="P55" s="159"/>
-      <c r="Q55" s="161"/>
-      <c r="R55" s="307"/>
-      <c r="S55" s="159"/>
-      <c r="T55" s="161"/>
-      <c r="U55" s="307"/>
-      <c r="V55" s="159"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="308"/>
+      <c r="A55" s="262"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="187"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="309"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="309"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="162"/>
+      <c r="L55" s="309"/>
+      <c r="M55" s="160"/>
+      <c r="N55" s="162"/>
+      <c r="O55" s="309"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="162"/>
+      <c r="R55" s="309"/>
+      <c r="S55" s="160"/>
+      <c r="T55" s="162"/>
+      <c r="U55" s="309"/>
+      <c r="V55" s="160"/>
+      <c r="W55" s="162"/>
+      <c r="X55" s="310"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="260"/>
-      <c r="B56" s="185"/>
-      <c r="C56" s="186"/>
-      <c r="D56" s="159"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="307"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="307"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="307"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="161"/>
-      <c r="O56" s="307"/>
-      <c r="P56" s="159"/>
-      <c r="Q56" s="161"/>
-      <c r="R56" s="307"/>
-      <c r="S56" s="159"/>
-      <c r="T56" s="161"/>
-      <c r="U56" s="307"/>
-      <c r="V56" s="159"/>
-      <c r="W56" s="161"/>
-      <c r="X56" s="308"/>
+      <c r="A56" s="262"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="187"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="162"/>
+      <c r="F56" s="309"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="309"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="309"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="162"/>
+      <c r="O56" s="309"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="162"/>
+      <c r="R56" s="309"/>
+      <c r="S56" s="160"/>
+      <c r="T56" s="162"/>
+      <c r="U56" s="309"/>
+      <c r="V56" s="160"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="310"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="260"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="307"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="161"/>
-      <c r="I57" s="307"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="307"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="161"/>
-      <c r="O57" s="307"/>
-      <c r="P57" s="159"/>
-      <c r="Q57" s="161"/>
-      <c r="R57" s="307"/>
-      <c r="S57" s="159"/>
-      <c r="T57" s="161"/>
-      <c r="U57" s="307"/>
-      <c r="V57" s="159"/>
-      <c r="W57" s="161"/>
-      <c r="X57" s="308"/>
+      <c r="A57" s="262"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="309"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="309"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="309"/>
+      <c r="M57" s="160"/>
+      <c r="N57" s="162"/>
+      <c r="O57" s="309"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="162"/>
+      <c r="R57" s="309"/>
+      <c r="S57" s="160"/>
+      <c r="T57" s="162"/>
+      <c r="U57" s="309"/>
+      <c r="V57" s="160"/>
+      <c r="W57" s="162"/>
+      <c r="X57" s="310"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="54"/>
@@ -7390,82 +7612,82 @@
       <c r="X59" s="113"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="260"/>
-      <c r="B60" s="185"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="307"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="307"/>
-      <c r="J60" s="159"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="307"/>
-      <c r="M60" s="159"/>
-      <c r="N60" s="161"/>
-      <c r="O60" s="307"/>
-      <c r="P60" s="159"/>
-      <c r="Q60" s="161"/>
-      <c r="R60" s="307"/>
-      <c r="S60" s="159"/>
-      <c r="T60" s="161"/>
-      <c r="U60" s="307"/>
-      <c r="V60" s="159"/>
-      <c r="W60" s="161"/>
-      <c r="X60" s="308"/>
+      <c r="A60" s="262"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="187"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="162"/>
+      <c r="F60" s="309"/>
+      <c r="G60" s="160"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="309"/>
+      <c r="J60" s="160"/>
+      <c r="K60" s="162"/>
+      <c r="L60" s="309"/>
+      <c r="M60" s="160"/>
+      <c r="N60" s="162"/>
+      <c r="O60" s="309"/>
+      <c r="P60" s="160"/>
+      <c r="Q60" s="162"/>
+      <c r="R60" s="309"/>
+      <c r="S60" s="160"/>
+      <c r="T60" s="162"/>
+      <c r="U60" s="309"/>
+      <c r="V60" s="160"/>
+      <c r="W60" s="162"/>
+      <c r="X60" s="310"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="260"/>
-      <c r="B61" s="185"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="307"/>
-      <c r="G61" s="159"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="307"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="307"/>
-      <c r="M61" s="159"/>
-      <c r="N61" s="161"/>
-      <c r="O61" s="307"/>
-      <c r="P61" s="159"/>
-      <c r="Q61" s="161"/>
-      <c r="R61" s="307"/>
-      <c r="S61" s="159"/>
-      <c r="T61" s="161"/>
-      <c r="U61" s="307"/>
-      <c r="V61" s="184"/>
-      <c r="W61" s="185"/>
-      <c r="X61" s="338"/>
+      <c r="A61" s="262"/>
+      <c r="B61" s="186"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="162"/>
+      <c r="F61" s="309"/>
+      <c r="G61" s="160"/>
+      <c r="H61" s="162"/>
+      <c r="I61" s="309"/>
+      <c r="J61" s="160"/>
+      <c r="K61" s="162"/>
+      <c r="L61" s="309"/>
+      <c r="M61" s="160"/>
+      <c r="N61" s="162"/>
+      <c r="O61" s="309"/>
+      <c r="P61" s="160"/>
+      <c r="Q61" s="162"/>
+      <c r="R61" s="309"/>
+      <c r="S61" s="160"/>
+      <c r="T61" s="162"/>
+      <c r="U61" s="309"/>
+      <c r="V61" s="185"/>
+      <c r="W61" s="186"/>
+      <c r="X61" s="340"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="157"/>
-      <c r="B62" s="161"/>
-      <c r="C62" s="307"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="307"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="307"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="307"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="161"/>
-      <c r="O62" s="307"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="161"/>
-      <c r="R62" s="307"/>
-      <c r="S62" s="159"/>
-      <c r="T62" s="161"/>
-      <c r="U62" s="307"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="161"/>
-      <c r="X62" s="308"/>
+      <c r="A62" s="158"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="160"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="160"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="309"/>
+      <c r="J62" s="160"/>
+      <c r="K62" s="162"/>
+      <c r="L62" s="309"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="162"/>
+      <c r="O62" s="309"/>
+      <c r="P62" s="160"/>
+      <c r="Q62" s="162"/>
+      <c r="R62" s="309"/>
+      <c r="S62" s="160"/>
+      <c r="T62" s="162"/>
+      <c r="U62" s="309"/>
+      <c r="V62" s="160"/>
+      <c r="W62" s="162"/>
+      <c r="X62" s="310"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="54"/>
@@ -7520,82 +7742,82 @@
       <c r="X64" s="113"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="157"/>
-      <c r="B65" s="161"/>
-      <c r="C65" s="307"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="307"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="161"/>
-      <c r="I65" s="307"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="307"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="161"/>
-      <c r="O65" s="307"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="161"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="161"/>
-      <c r="U65" s="307"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="161"/>
-      <c r="X65" s="308"/>
+      <c r="A65" s="158"/>
+      <c r="B65" s="162"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="160"/>
+      <c r="E65" s="162"/>
+      <c r="F65" s="309"/>
+      <c r="G65" s="160"/>
+      <c r="H65" s="162"/>
+      <c r="I65" s="309"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="309"/>
+      <c r="M65" s="160"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="309"/>
+      <c r="P65" s="160"/>
+      <c r="Q65" s="162"/>
+      <c r="R65" s="309"/>
+      <c r="S65" s="160"/>
+      <c r="T65" s="162"/>
+      <c r="U65" s="309"/>
+      <c r="V65" s="160"/>
+      <c r="W65" s="162"/>
+      <c r="X65" s="310"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="157"/>
-      <c r="B66" s="161"/>
-      <c r="C66" s="307"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="161"/>
-      <c r="F66" s="307"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="161"/>
-      <c r="I66" s="307"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="161"/>
-      <c r="L66" s="307"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="161"/>
-      <c r="O66" s="307"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="161"/>
-      <c r="R66" s="307"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="161"/>
-      <c r="U66" s="307"/>
-      <c r="V66" s="159"/>
-      <c r="W66" s="161"/>
-      <c r="X66" s="308"/>
+      <c r="A66" s="158"/>
+      <c r="B66" s="162"/>
+      <c r="C66" s="309"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="162"/>
+      <c r="F66" s="309"/>
+      <c r="G66" s="160"/>
+      <c r="H66" s="162"/>
+      <c r="I66" s="309"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="162"/>
+      <c r="L66" s="309"/>
+      <c r="M66" s="160"/>
+      <c r="N66" s="162"/>
+      <c r="O66" s="309"/>
+      <c r="P66" s="160"/>
+      <c r="Q66" s="162"/>
+      <c r="R66" s="309"/>
+      <c r="S66" s="160"/>
+      <c r="T66" s="162"/>
+      <c r="U66" s="309"/>
+      <c r="V66" s="160"/>
+      <c r="W66" s="162"/>
+      <c r="X66" s="310"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="157"/>
-      <c r="B67" s="161"/>
-      <c r="C67" s="307"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="161"/>
-      <c r="F67" s="307"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="161"/>
-      <c r="I67" s="307"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="307"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="161"/>
-      <c r="O67" s="307"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="161"/>
-      <c r="R67" s="307"/>
-      <c r="S67" s="159"/>
-      <c r="T67" s="161"/>
-      <c r="U67" s="307"/>
-      <c r="V67" s="159"/>
-      <c r="W67" s="161"/>
-      <c r="X67" s="308"/>
+      <c r="A67" s="158"/>
+      <c r="B67" s="162"/>
+      <c r="C67" s="309"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="162"/>
+      <c r="F67" s="309"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="162"/>
+      <c r="I67" s="309"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="162"/>
+      <c r="L67" s="309"/>
+      <c r="M67" s="160"/>
+      <c r="N67" s="162"/>
+      <c r="O67" s="309"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="162"/>
+      <c r="R67" s="309"/>
+      <c r="S67" s="160"/>
+      <c r="T67" s="162"/>
+      <c r="U67" s="309"/>
+      <c r="V67" s="160"/>
+      <c r="W67" s="162"/>
+      <c r="X67" s="310"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="54"/>
@@ -7676,186 +7898,186 @@
       <c r="X70" s="118"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="177"/>
-      <c r="B71" s="181"/>
-      <c r="C71" s="309"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="181"/>
-      <c r="F71" s="309"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="181"/>
-      <c r="I71" s="309"/>
-      <c r="J71" s="179"/>
-      <c r="K71" s="181"/>
-      <c r="L71" s="309"/>
-      <c r="M71" s="179"/>
-      <c r="N71" s="181"/>
-      <c r="O71" s="309"/>
-      <c r="P71" s="179"/>
-      <c r="Q71" s="181"/>
-      <c r="R71" s="309"/>
-      <c r="S71" s="179"/>
-      <c r="T71" s="181"/>
-      <c r="U71" s="309"/>
-      <c r="V71" s="179"/>
-      <c r="W71" s="181"/>
-      <c r="X71" s="310"/>
+      <c r="A71" s="178"/>
+      <c r="B71" s="182"/>
+      <c r="C71" s="311"/>
+      <c r="D71" s="180"/>
+      <c r="E71" s="182"/>
+      <c r="F71" s="311"/>
+      <c r="G71" s="180"/>
+      <c r="H71" s="182"/>
+      <c r="I71" s="311"/>
+      <c r="J71" s="180"/>
+      <c r="K71" s="182"/>
+      <c r="L71" s="311"/>
+      <c r="M71" s="180"/>
+      <c r="N71" s="182"/>
+      <c r="O71" s="311"/>
+      <c r="P71" s="180"/>
+      <c r="Q71" s="182"/>
+      <c r="R71" s="311"/>
+      <c r="S71" s="180"/>
+      <c r="T71" s="182"/>
+      <c r="U71" s="311"/>
+      <c r="V71" s="180"/>
+      <c r="W71" s="182"/>
+      <c r="X71" s="312"/>
     </row>
     <row r="72" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="144"/>
-      <c r="B72" s="150"/>
-      <c r="C72" s="151"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="151"/>
-      <c r="J72" s="147"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="151"/>
-      <c r="M72" s="147"/>
-      <c r="N72" s="150"/>
-      <c r="O72" s="151"/>
-      <c r="P72" s="147"/>
-      <c r="Q72" s="150"/>
-      <c r="R72" s="151"/>
-      <c r="S72" s="147"/>
-      <c r="T72" s="150"/>
-      <c r="U72" s="151"/>
-      <c r="V72" s="147"/>
-      <c r="W72" s="150"/>
-      <c r="X72" s="377"/>
+      <c r="A72" s="145"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="152"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="152"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="151"/>
+      <c r="I72" s="152"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="151"/>
+      <c r="L72" s="152"/>
+      <c r="M72" s="148"/>
+      <c r="N72" s="151"/>
+      <c r="O72" s="152"/>
+      <c r="P72" s="148"/>
+      <c r="Q72" s="151"/>
+      <c r="R72" s="152"/>
+      <c r="S72" s="148"/>
+      <c r="T72" s="151"/>
+      <c r="U72" s="152"/>
+      <c r="V72" s="148"/>
+      <c r="W72" s="151"/>
+      <c r="X72" s="379"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="177"/>
-      <c r="B73" s="181"/>
-      <c r="C73" s="309"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="309"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="181"/>
-      <c r="I73" s="309"/>
-      <c r="J73" s="179"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="309"/>
-      <c r="M73" s="179"/>
-      <c r="N73" s="181"/>
-      <c r="O73" s="309"/>
-      <c r="P73" s="179"/>
-      <c r="Q73" s="181"/>
-      <c r="R73" s="309"/>
-      <c r="S73" s="179"/>
-      <c r="T73" s="181"/>
-      <c r="U73" s="309"/>
-      <c r="V73" s="179"/>
-      <c r="W73" s="181"/>
-      <c r="X73" s="310"/>
+      <c r="A73" s="178"/>
+      <c r="B73" s="182"/>
+      <c r="C73" s="311"/>
+      <c r="D73" s="180"/>
+      <c r="E73" s="182"/>
+      <c r="F73" s="311"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="182"/>
+      <c r="I73" s="311"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="182"/>
+      <c r="L73" s="311"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="182"/>
+      <c r="O73" s="311"/>
+      <c r="P73" s="180"/>
+      <c r="Q73" s="182"/>
+      <c r="R73" s="311"/>
+      <c r="S73" s="180"/>
+      <c r="T73" s="182"/>
+      <c r="U73" s="311"/>
+      <c r="V73" s="180"/>
+      <c r="W73" s="182"/>
+      <c r="X73" s="312"/>
     </row>
     <row r="74" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="144"/>
-      <c r="B74" s="150"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="150"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="147"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="151"/>
-      <c r="M74" s="147"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="151"/>
-      <c r="P74" s="147"/>
-      <c r="Q74" s="150"/>
-      <c r="R74" s="151"/>
-      <c r="S74" s="147"/>
-      <c r="T74" s="150"/>
-      <c r="U74" s="151"/>
-      <c r="V74" s="147"/>
-      <c r="W74" s="150"/>
-      <c r="X74" s="377"/>
+      <c r="A74" s="145"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="152"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="152"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="152"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="151"/>
+      <c r="L74" s="152"/>
+      <c r="M74" s="148"/>
+      <c r="N74" s="151"/>
+      <c r="O74" s="152"/>
+      <c r="P74" s="148"/>
+      <c r="Q74" s="151"/>
+      <c r="R74" s="152"/>
+      <c r="S74" s="148"/>
+      <c r="T74" s="151"/>
+      <c r="U74" s="152"/>
+      <c r="V74" s="148"/>
+      <c r="W74" s="151"/>
+      <c r="X74" s="379"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="177"/>
-      <c r="B75" s="181"/>
-      <c r="C75" s="309"/>
-      <c r="D75" s="179"/>
-      <c r="E75" s="181"/>
-      <c r="F75" s="309"/>
-      <c r="G75" s="179"/>
-      <c r="H75" s="181"/>
-      <c r="I75" s="309"/>
-      <c r="J75" s="179"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="309"/>
-      <c r="M75" s="179"/>
-      <c r="N75" s="181"/>
-      <c r="O75" s="309"/>
-      <c r="P75" s="179"/>
-      <c r="Q75" s="181"/>
-      <c r="R75" s="309"/>
-      <c r="S75" s="179"/>
-      <c r="T75" s="181"/>
-      <c r="U75" s="309"/>
-      <c r="V75" s="179"/>
-      <c r="W75" s="181"/>
-      <c r="X75" s="310"/>
+      <c r="A75" s="178"/>
+      <c r="B75" s="182"/>
+      <c r="C75" s="311"/>
+      <c r="D75" s="180"/>
+      <c r="E75" s="182"/>
+      <c r="F75" s="311"/>
+      <c r="G75" s="180"/>
+      <c r="H75" s="182"/>
+      <c r="I75" s="311"/>
+      <c r="J75" s="180"/>
+      <c r="K75" s="182"/>
+      <c r="L75" s="311"/>
+      <c r="M75" s="180"/>
+      <c r="N75" s="182"/>
+      <c r="O75" s="311"/>
+      <c r="P75" s="180"/>
+      <c r="Q75" s="182"/>
+      <c r="R75" s="311"/>
+      <c r="S75" s="180"/>
+      <c r="T75" s="182"/>
+      <c r="U75" s="311"/>
+      <c r="V75" s="180"/>
+      <c r="W75" s="182"/>
+      <c r="X75" s="312"/>
     </row>
     <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="223"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="230"/>
-      <c r="D76" s="227"/>
-      <c r="E76" s="226"/>
-      <c r="F76" s="230"/>
-      <c r="G76" s="227"/>
-      <c r="H76" s="226"/>
-      <c r="I76" s="230"/>
-      <c r="J76" s="227"/>
-      <c r="K76" s="226"/>
-      <c r="L76" s="230"/>
-      <c r="M76" s="227"/>
-      <c r="N76" s="226"/>
-      <c r="O76" s="230"/>
-      <c r="P76" s="227"/>
-      <c r="Q76" s="226"/>
-      <c r="R76" s="230"/>
-      <c r="S76" s="227"/>
-      <c r="T76" s="226"/>
-      <c r="U76" s="230"/>
-      <c r="V76" s="227"/>
-      <c r="W76" s="226"/>
-      <c r="X76" s="378"/>
+      <c r="A76" s="225"/>
+      <c r="B76" s="228"/>
+      <c r="C76" s="232"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="228"/>
+      <c r="F76" s="232"/>
+      <c r="G76" s="229"/>
+      <c r="H76" s="228"/>
+      <c r="I76" s="232"/>
+      <c r="J76" s="229"/>
+      <c r="K76" s="228"/>
+      <c r="L76" s="232"/>
+      <c r="M76" s="229"/>
+      <c r="N76" s="228"/>
+      <c r="O76" s="232"/>
+      <c r="P76" s="229"/>
+      <c r="Q76" s="228"/>
+      <c r="R76" s="232"/>
+      <c r="S76" s="229"/>
+      <c r="T76" s="228"/>
+      <c r="U76" s="232"/>
+      <c r="V76" s="229"/>
+      <c r="W76" s="228"/>
+      <c r="X76" s="380"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="164"/>
-      <c r="B77" s="263"/>
-      <c r="C77" s="342"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="263"/>
-      <c r="F77" s="342"/>
-      <c r="G77" s="166"/>
-      <c r="H77" s="263"/>
-      <c r="I77" s="342"/>
-      <c r="J77" s="166"/>
-      <c r="K77" s="263"/>
-      <c r="L77" s="342"/>
-      <c r="M77" s="166"/>
-      <c r="N77" s="263"/>
-      <c r="O77" s="342"/>
-      <c r="P77" s="166"/>
-      <c r="Q77" s="263"/>
-      <c r="R77" s="342"/>
-      <c r="S77" s="166"/>
-      <c r="T77" s="263"/>
-      <c r="U77" s="263"/>
-      <c r="V77" s="166"/>
-      <c r="W77" s="263"/>
-      <c r="X77" s="343"/>
+      <c r="A77" s="165"/>
+      <c r="B77" s="265"/>
+      <c r="C77" s="344"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="265"/>
+      <c r="F77" s="344"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="265"/>
+      <c r="I77" s="344"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="265"/>
+      <c r="L77" s="344"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="265"/>
+      <c r="O77" s="344"/>
+      <c r="P77" s="167"/>
+      <c r="Q77" s="265"/>
+      <c r="R77" s="344"/>
+      <c r="S77" s="167"/>
+      <c r="T77" s="265"/>
+      <c r="U77" s="265"/>
+      <c r="V77" s="167"/>
+      <c r="W77" s="265"/>
+      <c r="X77" s="345"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="119"/>
@@ -7884,82 +8106,82 @@
       <c r="X78" s="120"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="177"/>
-      <c r="B79" s="181"/>
-      <c r="C79" s="309"/>
-      <c r="D79" s="179"/>
-      <c r="E79" s="181"/>
-      <c r="F79" s="309"/>
-      <c r="G79" s="179"/>
-      <c r="H79" s="181"/>
-      <c r="I79" s="309"/>
-      <c r="J79" s="179"/>
-      <c r="K79" s="181"/>
-      <c r="L79" s="309"/>
-      <c r="M79" s="179"/>
-      <c r="N79" s="181"/>
-      <c r="O79" s="309"/>
-      <c r="P79" s="179"/>
-      <c r="Q79" s="181"/>
-      <c r="R79" s="309"/>
-      <c r="S79" s="179"/>
-      <c r="T79" s="181"/>
-      <c r="U79" s="309"/>
-      <c r="V79" s="179"/>
-      <c r="W79" s="181"/>
-      <c r="X79" s="310"/>
+      <c r="A79" s="178"/>
+      <c r="B79" s="182"/>
+      <c r="C79" s="311"/>
+      <c r="D79" s="180"/>
+      <c r="E79" s="182"/>
+      <c r="F79" s="311"/>
+      <c r="G79" s="180"/>
+      <c r="H79" s="182"/>
+      <c r="I79" s="311"/>
+      <c r="J79" s="180"/>
+      <c r="K79" s="182"/>
+      <c r="L79" s="311"/>
+      <c r="M79" s="180"/>
+      <c r="N79" s="182"/>
+      <c r="O79" s="311"/>
+      <c r="P79" s="180"/>
+      <c r="Q79" s="182"/>
+      <c r="R79" s="311"/>
+      <c r="S79" s="180"/>
+      <c r="T79" s="182"/>
+      <c r="U79" s="311"/>
+      <c r="V79" s="180"/>
+      <c r="W79" s="182"/>
+      <c r="X79" s="312"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="157"/>
-      <c r="B80" s="161"/>
-      <c r="C80" s="307"/>
-      <c r="D80" s="193"/>
-      <c r="E80" s="254"/>
-      <c r="F80" s="379"/>
-      <c r="G80" s="193"/>
-      <c r="H80" s="254"/>
-      <c r="I80" s="379"/>
-      <c r="J80" s="193"/>
-      <c r="K80" s="254"/>
-      <c r="L80" s="379"/>
-      <c r="M80" s="193"/>
-      <c r="N80" s="254"/>
-      <c r="O80" s="379"/>
-      <c r="P80" s="193"/>
-      <c r="Q80" s="254"/>
-      <c r="R80" s="379"/>
-      <c r="S80" s="193"/>
-      <c r="T80" s="254"/>
-      <c r="U80" s="379"/>
-      <c r="V80" s="193"/>
-      <c r="W80" s="254"/>
-      <c r="X80" s="383"/>
+      <c r="A80" s="158"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="194"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="381"/>
+      <c r="G80" s="194"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="381"/>
+      <c r="J80" s="194"/>
+      <c r="K80" s="256"/>
+      <c r="L80" s="381"/>
+      <c r="M80" s="194"/>
+      <c r="N80" s="256"/>
+      <c r="O80" s="381"/>
+      <c r="P80" s="194"/>
+      <c r="Q80" s="256"/>
+      <c r="R80" s="381"/>
+      <c r="S80" s="194"/>
+      <c r="T80" s="256"/>
+      <c r="U80" s="381"/>
+      <c r="V80" s="194"/>
+      <c r="W80" s="256"/>
+      <c r="X80" s="385"/>
     </row>
     <row r="81" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="385"/>
-      <c r="B81" s="381"/>
-      <c r="C81" s="382"/>
-      <c r="D81" s="380"/>
-      <c r="E81" s="381"/>
-      <c r="F81" s="382"/>
-      <c r="G81" s="380"/>
-      <c r="H81" s="381"/>
-      <c r="I81" s="382"/>
-      <c r="J81" s="380"/>
-      <c r="K81" s="381"/>
-      <c r="L81" s="382"/>
-      <c r="M81" s="380"/>
-      <c r="N81" s="381"/>
-      <c r="O81" s="382"/>
-      <c r="P81" s="380"/>
-      <c r="Q81" s="381"/>
-      <c r="R81" s="382"/>
-      <c r="S81" s="380"/>
-      <c r="T81" s="381"/>
-      <c r="U81" s="382"/>
-      <c r="V81" s="380"/>
-      <c r="W81" s="381"/>
-      <c r="X81" s="384"/>
+      <c r="A81" s="387"/>
+      <c r="B81" s="383"/>
+      <c r="C81" s="384"/>
+      <c r="D81" s="382"/>
+      <c r="E81" s="383"/>
+      <c r="F81" s="384"/>
+      <c r="G81" s="382"/>
+      <c r="H81" s="383"/>
+      <c r="I81" s="384"/>
+      <c r="J81" s="382"/>
+      <c r="K81" s="383"/>
+      <c r="L81" s="384"/>
+      <c r="M81" s="382"/>
+      <c r="N81" s="383"/>
+      <c r="O81" s="384"/>
+      <c r="P81" s="382"/>
+      <c r="Q81" s="383"/>
+      <c r="R81" s="384"/>
+      <c r="S81" s="382"/>
+      <c r="T81" s="383"/>
+      <c r="U81" s="384"/>
+      <c r="V81" s="382"/>
+      <c r="W81" s="383"/>
+      <c r="X81" s="386"/>
     </row>
     <row r="82" spans="1:24" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="95"/>
@@ -8504,4 +8726,683 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D941E35-EC60-46C0-B9CD-4D962EF617C6}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.3125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="3" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="21" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="22" hidden="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89542BD-6F30-4C62-B030-0AD277E03E08}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="A1:Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="121"/>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="121"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="121"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>